--- a/data/trans_orig/P1423-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>45490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34870</v>
+        <v>32792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60191</v>
+        <v>59500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07787446061415886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05969520536905202</v>
+        <v>0.0561366994228347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1030419246681599</v>
+        <v>0.1018582700900018</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -765,19 +765,19 @@
         <v>104610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85726</v>
+        <v>86446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125715</v>
+        <v>126362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1134191679449205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09294522964345668</v>
+        <v>0.09372555827735983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1363008065599109</v>
+        <v>0.1370023423254539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -786,19 +786,19 @@
         <v>150100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128141</v>
+        <v>126876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>176708</v>
+        <v>174268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09963656837245927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08506040355863018</v>
+        <v>0.08422047688010906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1172993698584926</v>
+        <v>0.1156792853397294</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>538651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>523950</v>
+        <v>524641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>549271</v>
+        <v>551349</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9221255393858412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8969580753318399</v>
+        <v>0.8981417299099981</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9403047946309478</v>
+        <v>0.9438633005771649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>784</v>
@@ -836,19 +836,19 @@
         <v>817723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>796618</v>
+        <v>795971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>836607</v>
+        <v>835887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8865808320550794</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8636991934400892</v>
+        <v>0.8629976576745461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9070547703565434</v>
+        <v>0.90627444172264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1312</v>
@@ -857,19 +857,19 @@
         <v>1356374</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329766</v>
+        <v>1332206</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1378333</v>
+        <v>1379598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9003634316275407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8827006301415079</v>
+        <v>0.8843207146602695</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9149395964413707</v>
+        <v>0.9157795231198905</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15730</v>
+        <v>16591</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35886</v>
+        <v>37011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02311733061392633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0145933912675608</v>
+        <v>0.01539169514338109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03329252060147356</v>
+        <v>0.03433649467628965</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -982,19 +982,19 @@
         <v>75241</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59327</v>
+        <v>60188</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94339</v>
+        <v>94789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07114722183393131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05609948504366032</v>
+        <v>0.05691309739541521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08920639999921837</v>
+        <v>0.08963150228072558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -1003,19 +1003,19 @@
         <v>100159</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82727</v>
+        <v>82355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121098</v>
+        <v>122598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04690335349008524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03874029152938979</v>
+        <v>0.03856573825411358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05670883931498768</v>
+        <v>0.05741119870359156</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1052976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1042008</v>
+        <v>1040883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1062164</v>
+        <v>1061303</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9768826693860737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9667074793985263</v>
+        <v>0.9656635053237103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854066087324391</v>
+        <v>0.9846083048566189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>956</v>
@@ -1053,19 +1053,19 @@
         <v>982297</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963199</v>
+        <v>962749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>998211</v>
+        <v>997350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9288527781660687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9107936000007816</v>
+        <v>0.9103684977192743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9439005149563396</v>
+        <v>0.9430869026045846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1986</v>
@@ -1074,19 +1074,19 @@
         <v>2035273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2014334</v>
+        <v>2012834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2052705</v>
+        <v>2053077</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9530966465099148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9432911606850125</v>
+        <v>0.9425888012964085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9612597084706104</v>
+        <v>0.9614342617458864</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11916</v>
+        <v>11966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28168</v>
+        <v>28672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01707597065894696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01062399868007292</v>
+        <v>0.01066841487880057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02511403804243858</v>
+        <v>0.02556356420289618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1199,19 +1199,19 @@
         <v>50143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38012</v>
+        <v>39196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65362</v>
+        <v>67301</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.050448826988058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03824376894798134</v>
+        <v>0.03943466574713108</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06576009212894515</v>
+        <v>0.0677110694545556</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1220,19 +1220,19 @@
         <v>69295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54330</v>
+        <v>53903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85252</v>
+        <v>85983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03275551327265676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0256816679373058</v>
+        <v>0.02547947523476735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04029817802724709</v>
+        <v>0.04064372921282692</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1102442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1093426</v>
+        <v>1092922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1109678</v>
+        <v>1109628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9829240293410531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9748859619575617</v>
+        <v>0.9744364357971034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9893760013199271</v>
+        <v>0.9893315851211992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>933</v>
@@ -1270,19 +1270,19 @@
         <v>943797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>928578</v>
+        <v>926639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>955928</v>
+        <v>954744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.949551173011942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9342399078710548</v>
+        <v>0.9322889305454444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9617562310520187</v>
+        <v>0.9605653342528689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2015</v>
@@ -1291,19 +1291,19 @@
         <v>2046239</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2030282</v>
+        <v>2029551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2061204</v>
+        <v>2061631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9672444867273432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.959701821972753</v>
+        <v>0.959356270787173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9743183320626945</v>
+        <v>0.9745205247652327</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9594</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3954</v>
+        <v>4439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15946</v>
+        <v>16635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02145393391866495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008841927430505719</v>
+        <v>0.009926687424065959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0356567714854169</v>
+        <v>0.03719783130503349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>20220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12372</v>
+        <v>12511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30942</v>
+        <v>31129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05926920185032817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03626389178510565</v>
+        <v>0.03667112957836976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09069735653919229</v>
+        <v>0.09124504624309666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1437,19 +1437,19 @@
         <v>29814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20101</v>
+        <v>20313</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42710</v>
+        <v>43084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03781831419148955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02549744904896082</v>
+        <v>0.02576586649143424</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05417624473842212</v>
+        <v>0.05465021934699608</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>431254</v>
+        <v>430565</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443246</v>
+        <v>442761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9785460660813351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643432285145832</v>
+        <v>0.9628021686949665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911580725694943</v>
+        <v>0.9900733125759341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -1487,19 +1487,19 @@
         <v>320938</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310216</v>
+        <v>310029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328786</v>
+        <v>328647</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9407307981496719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9093026434608077</v>
+        <v>0.9087549537569033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9637361082148944</v>
+        <v>0.9633288704216302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>746</v>
@@ -1508,19 +1508,19 @@
         <v>758544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>745648</v>
+        <v>745274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>768257</v>
+        <v>768045</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9621816858085105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9458237552615779</v>
+        <v>0.9453497806530039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9745025509510392</v>
+        <v>0.9742341335085657</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>99154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80040</v>
+        <v>80277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118031</v>
+        <v>119260</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0306900244208503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02477389687944157</v>
+        <v>0.02484723192773636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03653268249646949</v>
+        <v>0.03691306958881777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -1633,19 +1633,19 @@
         <v>250214</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221792</v>
+        <v>221710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>279549</v>
+        <v>282230</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07548016655069685</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06690619456496967</v>
+        <v>0.06688149865653846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08432920341088677</v>
+        <v>0.08513799581800066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>343</v>
@@ -1654,19 +1654,19 @@
         <v>349369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>315038</v>
+        <v>310151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>385635</v>
+        <v>386284</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05337296116974152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04812834545826599</v>
+        <v>0.04738177062758788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05891343713916967</v>
+        <v>0.0590125782612519</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3131675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3112798</v>
+        <v>3111569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3150789</v>
+        <v>3150552</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9693099755791497</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9634673175035304</v>
+        <v>0.9630869304111823</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9752261031205585</v>
+        <v>0.9751527680722637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2993</v>
@@ -1704,19 +1704,19 @@
         <v>3064755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3035420</v>
+        <v>3032739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3093177</v>
+        <v>3093259</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9245198334493031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9156707965891133</v>
+        <v>0.9148620041819994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9330938054350304</v>
+        <v>0.9331185013434615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6059</v>
@@ -1725,19 +1725,19 @@
         <v>6196429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6160163</v>
+        <v>6159514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6230760</v>
+        <v>6235647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9466270388302584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9410865628608304</v>
+        <v>0.9409874217387482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9518716545417341</v>
+        <v>0.9526182293724127</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>58990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43516</v>
+        <v>45093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77799</v>
+        <v>77230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05650731805911471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04168429080650602</v>
+        <v>0.04319516595388716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0745249776597541</v>
+        <v>0.07397985405317328</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -2090,19 +2090,19 @@
         <v>200622</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176547</v>
+        <v>174254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229377</v>
+        <v>227952</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1793428385061539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1578208457946026</v>
+        <v>0.1557714563855011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2050478387810538</v>
+        <v>0.2037736880727931</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -2111,19 +2111,19 @@
         <v>259612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>230753</v>
+        <v>232285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>290863</v>
+        <v>291049</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1200470832888141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1067022760670547</v>
+        <v>0.1074107734882852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1344976347693688</v>
+        <v>0.1345836449426525</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>984945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>966136</v>
+        <v>966705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1000419</v>
+        <v>998842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9434926819408853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9254750223402458</v>
+        <v>0.9260201459468267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.958315709193494</v>
+        <v>0.9568048340461128</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>844</v>
@@ -2161,19 +2161,19 @@
         <v>918031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>889276</v>
+        <v>890701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>942106</v>
+        <v>944399</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.820657161493846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7949521612189461</v>
+        <v>0.7962263119272065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8421791542053969</v>
+        <v>0.8442285436144987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1771</v>
@@ -2182,19 +2182,19 @@
         <v>1902976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1871725</v>
+        <v>1871539</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1931835</v>
+        <v>1930303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8799529167111859</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8655023652306314</v>
+        <v>0.8654163550573476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8932977239329453</v>
+        <v>0.8925892265117148</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>36872</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25006</v>
+        <v>25607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50829</v>
+        <v>51389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03773755149580357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02559281954454588</v>
+        <v>0.02620808625242642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0520214838286101</v>
+        <v>0.05259478944854691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -2307,19 +2307,19 @@
         <v>99788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80527</v>
+        <v>82351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119273</v>
+        <v>120004</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09135340322796333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07372067221089884</v>
+        <v>0.0753903375623288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1091913490781112</v>
+        <v>0.1098610383129597</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -2328,19 +2328,19 @@
         <v>136660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116289</v>
+        <v>114461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162036</v>
+        <v>162209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06603853063411305</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05619467028953712</v>
+        <v>0.05531122945006606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07830104877048437</v>
+        <v>0.07838445302433077</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>940201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926244</v>
+        <v>925684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952067</v>
+        <v>951466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9622624485041964</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.94797851617139</v>
+        <v>0.9474052105514531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9744071804554542</v>
+        <v>0.9737919137475736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>923</v>
@@ -2378,19 +2378,19 @@
         <v>992539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>973054</v>
+        <v>972323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1011800</v>
+        <v>1009976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9086465967720366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8908086509218888</v>
+        <v>0.8901389616870404</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9262793277891013</v>
+        <v>0.9246096624376714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1813</v>
@@ -2399,19 +2399,19 @@
         <v>1932740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1907364</v>
+        <v>1907191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1953111</v>
+        <v>1954939</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.933961469365887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9216989512295156</v>
+        <v>0.9216155469756694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9438053297104629</v>
+        <v>0.9446887705499339</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>34596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23189</v>
+        <v>23884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47597</v>
+        <v>48244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03908680210582464</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02619880281698102</v>
+        <v>0.02698375547117083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05377469361310479</v>
+        <v>0.0545058920918081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2524,19 +2524,19 @@
         <v>72153</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57020</v>
+        <v>56289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90424</v>
+        <v>89720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08238601528132754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06510625328263912</v>
+        <v>0.06427190913145732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1032475576835389</v>
+        <v>0.1024438693573562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -2545,19 +2545,19 @@
         <v>106750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88953</v>
+        <v>87271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130550</v>
+        <v>127324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06062183177504919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05051545796699845</v>
+        <v>0.04955998455567832</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07413791507977104</v>
+        <v>0.07230558206975818</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>850519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>837518</v>
+        <v>836871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>861926</v>
+        <v>861231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9609131978941754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9462253063868947</v>
+        <v>0.9454941079081916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9738011971830188</v>
+        <v>0.9730162445288291</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>753</v>
@@ -2595,19 +2595,19 @@
         <v>803643</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>785372</v>
+        <v>786076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>818776</v>
+        <v>819507</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9176139847186725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.896752442316461</v>
+        <v>0.8975561306426438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9348937467173608</v>
+        <v>0.9357280908685427</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1551</v>
@@ -2616,19 +2616,19 @@
         <v>1654161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1630361</v>
+        <v>1633587</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1671958</v>
+        <v>1673640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9393781682249508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9258620849202289</v>
+        <v>0.9276944179302433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9494845420330018</v>
+        <v>0.9504400154443218</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>12222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6352</v>
+        <v>6187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22915</v>
+        <v>22339</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02429615907187554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01262761416714578</v>
+        <v>0.01229880296039058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0455554413166667</v>
+        <v>0.04440882927773057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>29954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20682</v>
+        <v>20611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42110</v>
+        <v>41280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06616193232069699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04568184376032893</v>
+        <v>0.04552583859175723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09301174240632901</v>
+        <v>0.09117911367741795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -2762,19 +2762,19 @@
         <v>42175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30020</v>
+        <v>30433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55385</v>
+        <v>55661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04412766497961243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03140949445100462</v>
+        <v>0.03184162069889657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05794910218117536</v>
+        <v>0.05823790339909266</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>490801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480108</v>
+        <v>480684</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496671</v>
+        <v>496836</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9757038409281245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9544445586833338</v>
+        <v>0.9555911707222694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9873723858328542</v>
+        <v>0.9877011970396093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -2812,19 +2812,19 @@
         <v>422782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>410626</v>
+        <v>411456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>432054</v>
+        <v>432125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.933838067679303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9069882575936705</v>
+        <v>0.9088208863225817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9543181562396711</v>
+        <v>0.9544741614082426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>833</v>
@@ -2833,19 +2833,19 @@
         <v>913583</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>900373</v>
+        <v>900097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>925738</v>
+        <v>925325</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9558723350203876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9420508978188247</v>
+        <v>0.9417620966009074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9685905055489955</v>
+        <v>0.9681583793011035</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>142680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119217</v>
+        <v>121564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171630</v>
+        <v>169810</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04185216903820325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03496969352908139</v>
+        <v>0.03565820827286154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05034399587008084</v>
+        <v>0.04981024469069704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>379</v>
@@ -2958,19 +2958,19 @@
         <v>402517</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366640</v>
+        <v>368517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>440029</v>
+        <v>444485</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1137211697295482</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1035849367719932</v>
+        <v>0.1041153277364537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.124319157783349</v>
+        <v>0.1255781893537807</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -2979,19 +2979,19 @@
         <v>545198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>502391</v>
+        <v>504798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>591141</v>
+        <v>597216</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07846084767324114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0723003846210946</v>
+        <v>0.07264682817116772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0850726962049677</v>
+        <v>0.08594701021389675</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3266465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3237515</v>
+        <v>3239335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3289928</v>
+        <v>3287581</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9581478309617968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.949656004129919</v>
+        <v>0.9501897553093028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9650303064709185</v>
+        <v>0.9643417917271383</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2903</v>
@@ -3029,19 +3029,19 @@
         <v>3136994</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3099482</v>
+        <v>3095026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3172871</v>
+        <v>3170994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8862788302704517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8756808422166509</v>
+        <v>0.8744218106462193</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8964150632280067</v>
+        <v>0.8958846722635464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5968</v>
@@ -3050,19 +3050,19 @@
         <v>6403459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6357516</v>
+        <v>6351441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6446266</v>
+        <v>6443859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9215391523267589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9149273037950324</v>
+        <v>0.9140529897861033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9276996153789054</v>
+        <v>0.9273531718288325</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>58879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45385</v>
+        <v>45814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75523</v>
+        <v>75641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05219779560984453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04023486097492415</v>
+        <v>0.04061579873617402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06695288486564678</v>
+        <v>0.06705791258731998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -3415,19 +3415,19 @@
         <v>201307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176154</v>
+        <v>176981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228593</v>
+        <v>231500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1598229440287158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1398531063332359</v>
+        <v>0.1405103940842419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1814863722714256</v>
+        <v>0.1837943038606332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>238</v>
@@ -3436,19 +3436,19 @@
         <v>260186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229712</v>
+        <v>228156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292784</v>
+        <v>295047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1089756476247178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09621214772837623</v>
+        <v>0.09556028479515531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1226291175205484</v>
+        <v>0.1235768132273554</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1069118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1052474</v>
+        <v>1052356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1082612</v>
+        <v>1082183</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9478022043901555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9330471151343533</v>
+        <v>0.93294208741268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9597651390250759</v>
+        <v>0.9593842012638262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1007</v>
@@ -3486,19 +3486,19 @@
         <v>1058254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1030968</v>
+        <v>1028061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1083407</v>
+        <v>1082580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8401770559712842</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8185136277285744</v>
+        <v>0.8162056961393668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8601468936667641</v>
+        <v>0.8594896059157581</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2016</v>
@@ -3507,19 +3507,19 @@
         <v>2127372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2094774</v>
+        <v>2092511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2157846</v>
+        <v>2159402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8910243523752822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8773708824794516</v>
+        <v>0.8764231867726444</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9037878522716235</v>
+        <v>0.9044397152048447</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>24660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15857</v>
+        <v>16260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35730</v>
+        <v>35798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02713383153249313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01744778645923994</v>
+        <v>0.01789086896277381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03931473962603942</v>
+        <v>0.0393898227218242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -3632,19 +3632,19 @@
         <v>77138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62173</v>
+        <v>61970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96118</v>
+        <v>95894</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07664221055785864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06177311456490839</v>
+        <v>0.06157138434267983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09549998161182439</v>
+        <v>0.09527675154056717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -3653,19 +3653,19 @@
         <v>101798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83014</v>
+        <v>83214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123503</v>
+        <v>121732</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05315009974157488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04334253891887635</v>
+        <v>0.04344713247773917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06448250800481098</v>
+        <v>0.06355757934576677</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>884165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873095</v>
+        <v>873027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892968</v>
+        <v>892565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9728661684675068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9606852603739605</v>
+        <v>0.9606101772781759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825522135407601</v>
+        <v>0.9821091310372263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>877</v>
@@ -3703,19 +3703,19 @@
         <v>929337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>910357</v>
+        <v>910581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>944302</v>
+        <v>944505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9233577894421414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9045000183881754</v>
+        <v>0.9047232484594327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9382268854350915</v>
+        <v>0.9384286156573201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1733</v>
@@ -3724,19 +3724,19 @@
         <v>1813502</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1791797</v>
+        <v>1793568</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1832286</v>
+        <v>1832086</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9468499002584251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9355174919951899</v>
+        <v>0.9364424206542333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9566574610811237</v>
+        <v>0.9565528675222609</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>17762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10809</v>
+        <v>10433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27941</v>
+        <v>27363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02156266545387073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01312174432753048</v>
+        <v>0.01266491832899807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03391914939554597</v>
+        <v>0.03321779347730601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3849,19 +3849,19 @@
         <v>51699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38075</v>
+        <v>38403</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68410</v>
+        <v>67621</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06704891477645605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04937955372686669</v>
+        <v>0.04980518914067233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08872224366811367</v>
+        <v>0.08769906029343404</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -3870,19 +3870,19 @@
         <v>69461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53832</v>
+        <v>53214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88700</v>
+        <v>88547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04355424589559469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03375421763752776</v>
+        <v>0.03336704151800045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05561756714356313</v>
+        <v>0.05552180870822681</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>805997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>795818</v>
+        <v>796396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>812950</v>
+        <v>813326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9784373345461292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.966080850604454</v>
+        <v>0.9667822065226941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868782556724695</v>
+        <v>0.9873350816710021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -3920,19 +3920,19 @@
         <v>719360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702649</v>
+        <v>703438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>732984</v>
+        <v>732656</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.932951085223544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9112777563318862</v>
+        <v>0.9123009397065659</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9506204462731334</v>
+        <v>0.9501948108593277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1453</v>
@@ -3941,19 +3941,19 @@
         <v>1525357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506118</v>
+        <v>1506271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1540986</v>
+        <v>1541604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9564457541044054</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9443824328564363</v>
+        <v>0.9444781912917732</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9662457823624722</v>
+        <v>0.9666329584819995</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>7447</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2951</v>
+        <v>2482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16310</v>
+        <v>15285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01469631410353132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005823358538289376</v>
+        <v>0.004898690388897791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03218874358740278</v>
+        <v>0.03016540996519465</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4066,19 +4066,19 @@
         <v>27370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18288</v>
+        <v>18158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39390</v>
+        <v>40226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05589116729502182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03734589285824585</v>
+        <v>0.03708036952663578</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08043726606937129</v>
+        <v>0.08214353930331671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -4087,19 +4087,19 @@
         <v>34816</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23558</v>
+        <v>23912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48445</v>
+        <v>48546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03494224954624255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02364308972079346</v>
+        <v>0.02399851927254961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04862019175923679</v>
+        <v>0.04872188649455721</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>499254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490391</v>
+        <v>491416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>503750</v>
+        <v>504219</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9853036858964687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9678112564125972</v>
+        <v>0.9698345900348047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9941766414617107</v>
+        <v>0.9951013096111022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -4137,19 +4137,19 @@
         <v>462328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450308</v>
+        <v>449472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471410</v>
+        <v>471540</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9441088327049781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9195627339306287</v>
+        <v>0.9178564606966833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9626541071417541</v>
+        <v>0.9629196304733643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>895</v>
@@ -4158,19 +4158,19 @@
         <v>961582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>947953</v>
+        <v>947852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>972840</v>
+        <v>972486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9650577504537574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9513798082407633</v>
+        <v>0.9512781135054428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9763569102792066</v>
+        <v>0.9760014807274504</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>108748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89620</v>
+        <v>87908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131422</v>
+        <v>129711</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03229546593476006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02661491977291026</v>
+        <v>0.02610641188411474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03902917089899761</v>
+        <v>0.03852087386341574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -4283,19 +4283,19 @@
         <v>357514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>323693</v>
+        <v>322464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>395495</v>
+        <v>397315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1013707591751172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09178123884644161</v>
+        <v>0.09143265318700336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1121401898441711</v>
+        <v>0.1126562620597548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -4304,19 +4304,19 @@
         <v>466262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>425699</v>
+        <v>424785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>511553</v>
+        <v>508049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06763221960657183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06174858926004774</v>
+        <v>0.06161602062332749</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07420186676627309</v>
+        <v>0.07369356311916951</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3258534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3235860</v>
+        <v>3237571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3277662</v>
+        <v>3279374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9677045340652399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9609708291010024</v>
+        <v>0.9614791261365843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9733850802270898</v>
+        <v>0.9738935881158853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2997</v>
@@ -4354,19 +4354,19 @@
         <v>3169278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3131297</v>
+        <v>3129477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3203099</v>
+        <v>3204328</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8986292408248828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.887859810155829</v>
+        <v>0.8873437379402452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9082187611535584</v>
+        <v>0.9085673468129969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6097</v>
@@ -4375,19 +4375,19 @@
         <v>6427813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6382522</v>
+        <v>6386026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6468376</v>
+        <v>6469290</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9323677803934282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9257981332337269</v>
+        <v>0.9263064368808305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9382514107399522</v>
+        <v>0.9383839793766725</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>68713</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54454</v>
+        <v>53175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86052</v>
+        <v>86360</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1377731885945433</v>
+        <v>0.1377731885945434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1091843139720528</v>
+        <v>0.1066179326050919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1725395738727377</v>
+        <v>0.1731557633593822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -4740,19 +4740,19 @@
         <v>131478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115294</v>
+        <v>115205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149744</v>
+        <v>149665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2108431635803659</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1848897782899632</v>
+        <v>0.1847469525549888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2401360054087466</v>
+        <v>0.2400086338072563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>266</v>
@@ -4761,19 +4761,19 @@
         <v>200191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178822</v>
+        <v>177361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223846</v>
+        <v>223455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.178372135888308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1593327861590486</v>
+        <v>0.1580305918724124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1994492224684627</v>
+        <v>0.1991013501710113</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>430026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412687</v>
+        <v>412379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>444285</v>
+        <v>445564</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8622268114054568</v>
+        <v>0.8622268114054565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8274604261272623</v>
+        <v>0.8268442366406181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8908156860279474</v>
+        <v>0.8933820673949084</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -4811,19 +4811,19 @@
         <v>492102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>473836</v>
+        <v>473915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>508286</v>
+        <v>508375</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7891568364196339</v>
+        <v>0.789156836419634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7598639945912535</v>
+        <v>0.7599913661927438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8151102217100368</v>
+        <v>0.8152530474450114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1050</v>
@@ -4832,19 +4832,19 @@
         <v>922129</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>898474</v>
+        <v>898865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>943498</v>
+        <v>944959</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8216278641116921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8005507775315372</v>
+        <v>0.8008986498289888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8406672138409514</v>
+        <v>0.8419694081275879</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>47668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35343</v>
+        <v>35311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63304</v>
+        <v>62928</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04964727931209409</v>
+        <v>0.04964727931209408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03680988438685542</v>
+        <v>0.03677712817185173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06593176722528402</v>
+        <v>0.06554071797451841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -4957,19 +4957,19 @@
         <v>139422</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122961</v>
+        <v>120853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160466</v>
+        <v>159467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1249469172270214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1101947474200792</v>
+        <v>0.1083054421089873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1438061159684902</v>
+        <v>0.1429107922079072</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -4978,19 +4978,19 @@
         <v>187090</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164835</v>
+        <v>166489</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210552</v>
+        <v>213482</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09012108287351601</v>
+        <v>0.090121082873516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07940065167309075</v>
+        <v>0.08019771917696331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1014228027032752</v>
+        <v>0.1028340234139006</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>912469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896833</v>
+        <v>897209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>924794</v>
+        <v>924826</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950352720687906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9340682327747161</v>
+        <v>0.9344592820254812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9631901156131445</v>
+        <v>0.9632228718281481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1389</v>
@@ -5028,19 +5028,19 @@
         <v>976427</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>955383</v>
+        <v>956382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992888</v>
+        <v>994996</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8750530827729786</v>
+        <v>0.8750530827729783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.85619388403151</v>
+        <v>0.8570892077920929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8898052525799209</v>
+        <v>0.8916945578910129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2245</v>
@@ -5049,19 +5049,19 @@
         <v>1888896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1865434</v>
+        <v>1862504</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1911151</v>
+        <v>1909497</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9098789171264839</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8985771972967249</v>
+        <v>0.8971659765860995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9205993483269093</v>
+        <v>0.9198022808230368</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>46869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35429</v>
+        <v>35360</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63180</v>
+        <v>61566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04478776203344179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03385532838490109</v>
+        <v>0.03378945784666714</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0603741352484322</v>
+        <v>0.05883200268534903</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -5174,19 +5174,19 @@
         <v>105080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89881</v>
+        <v>87835</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123266</v>
+        <v>122024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1003012177415744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08579405301115089</v>
+        <v>0.08384036938859006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1176602444590599</v>
+        <v>0.1164746681034677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -5195,19 +5195,19 @@
         <v>151949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129959</v>
+        <v>129927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174207</v>
+        <v>173412</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07255989646422997</v>
+        <v>0.07255989646422999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06205876987658573</v>
+        <v>0.06204385991076095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08318866056602803</v>
+        <v>0.08280876174165901</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>999610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>983299</v>
+        <v>984913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1011050</v>
+        <v>1011119</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9552122379665582</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9396258647515675</v>
+        <v>0.9411679973146511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9661446716150988</v>
+        <v>0.9662105421533328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1360</v>
@@ -5245,19 +5245,19 @@
         <v>942562</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>924376</v>
+        <v>925618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>957761</v>
+        <v>959807</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8996987822584257</v>
+        <v>0.8996987822584258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8823397555409401</v>
+        <v>0.8835253318965325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.914205946988849</v>
+        <v>0.91615963061141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2338</v>
@@ -5266,19 +5266,19 @@
         <v>1942172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1919914</v>
+        <v>1920709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1964162</v>
+        <v>1964194</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9274401035357699</v>
+        <v>0.92744010353577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9168113394339713</v>
+        <v>0.917191238258341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.937941230123414</v>
+        <v>0.9379561400892391</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>43164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31150</v>
+        <v>31500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59953</v>
+        <v>58697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04422909950552881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03191842751427625</v>
+        <v>0.03227729481749573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0614318474467235</v>
+        <v>0.06014480053350301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -5391,19 +5391,19 @@
         <v>75848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63938</v>
+        <v>62988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91525</v>
+        <v>91917</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08331826705026857</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07023454138772735</v>
+        <v>0.06919139014458116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1005385855512606</v>
+        <v>0.1009691670458027</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -5412,19 +5412,19 @@
         <v>119013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100771</v>
+        <v>100960</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141192</v>
+        <v>139306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06309413417091726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05342313213386871</v>
+        <v>0.05352331593454818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07485211705956436</v>
+        <v>0.07385224900552213</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>932765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915976</v>
+        <v>917232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>944779</v>
+        <v>944429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9557709004944713</v>
+        <v>0.9557709004944712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9385681525532763</v>
+        <v>0.939855199466497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9680815724857236</v>
+        <v>0.9677227051825043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1208</v>
@@ -5462,19 +5462,19 @@
         <v>834497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>818820</v>
+        <v>818428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846407</v>
+        <v>847357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9166817329497315</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8994614144487393</v>
+        <v>0.8990308329541971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9297654586122723</v>
+        <v>0.9308086098554187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2111</v>
@@ -5483,19 +5483,19 @@
         <v>1767261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1745082</v>
+        <v>1746968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1785503</v>
+        <v>1785314</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9369058658290829</v>
+        <v>0.9369058658290828</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9251478829404357</v>
+        <v>0.9261477509944778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9465768678661314</v>
+        <v>0.9464766840654514</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>206415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181851</v>
+        <v>177103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>236078</v>
+        <v>234960</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05929277538447021</v>
+        <v>0.05929277538447022</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05223671883932841</v>
+        <v>0.05087295812252824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06781360269470184</v>
+        <v>0.06749225719563767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>687</v>
@@ -5608,19 +5608,19 @@
         <v>451828</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>418795</v>
+        <v>420082</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>487837</v>
+        <v>484701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.122200922505334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1132670070556556</v>
+        <v>0.113614938110888</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.13193985399752</v>
+        <v>0.1310919193187004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>905</v>
@@ -5629,19 +5629,19 @@
         <v>658243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>614475</v>
+        <v>615081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>703401</v>
+        <v>705369</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09169384808874993</v>
+        <v>0.09169384808874995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0855969381343855</v>
+        <v>0.08568139871533519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09798445893861114</v>
+        <v>0.09825860037369614</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3274869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3245206</v>
+        <v>3246324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3299433</v>
+        <v>3304181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9407072246155298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.932186397305298</v>
+        <v>0.9325077428043622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9477632811606715</v>
+        <v>0.9491270418774717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4621</v>
@@ -5679,19 +5679,19 @@
         <v>3245588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3209579</v>
+        <v>3212715</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3278621</v>
+        <v>3277334</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8777990774946659</v>
+        <v>0.877799077494666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.86806014600248</v>
+        <v>0.8689080806812999</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8867329929443443</v>
+        <v>0.8863850618891124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7744</v>
@@ -5700,19 +5700,19 @@
         <v>6520458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6475300</v>
+        <v>6473332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6564226</v>
+        <v>6563620</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9083061519112501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9020155410613888</v>
+        <v>0.9017413996263038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9144030618656146</v>
+        <v>0.9143186012846648</v>
       </c>
     </row>
     <row r="18">
